--- a/数据整理/stocks/A股/科创板/688234-天岳先进.xlsx
+++ b/数据整理/stocks/A股/科创板/688234-天岳先进.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,253 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688234-天岳先进.xlsx
+++ b/数据整理/stocks/A股/科创板/688234-天岳先进.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,91 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>50.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -790,64 +764,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688234-天岳先进.xlsx
+++ b/数据整理/stocks/A股/科创板/688234-天岳先进.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -515,6 +532,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -758,7 +1705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688234-天岳先进.xlsx
+++ b/数据整理/stocks/A股/科创板/688234-天岳先进.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3.01</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -532,6 +549,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银行业成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014241</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银均衡收益混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1461,7 +2218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1705,7 +2462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
